--- a/cards/cardholder_routing/cardholder_routing.xlsx
+++ b/cards/cardholder_routing/cardholder_routing.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,636 +440,1104 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>cro_aid</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>cro_pan</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cro_code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cro_acc_code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cro_cus_code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cro_tran_mcc</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cro_tran_code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>cro_tran_curr_code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>4235590002452489</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1a236d39-1672-4a7e-84cd-9ebfc0e05a2d</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4235590002452489</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>530012</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>919185</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>1251895</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>4235590004467345</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c15ee6b0-44d5-4402-b5f2-ea06a6d243b0</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4235590004467345</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>534440</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>1020535</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>1789419</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
-        <v>4235590007805459</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0c418635-a6b0-4341-b49a-54789cc9eed1</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4235590007805459</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>576359</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>685879</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>1189793</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>4235599990588527</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3940f840-0b20-46aa-85c5-bc5773fb92ab</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4235599990588527</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>599126</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>798601</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>1550076</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
-        <v>4235590009196568</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9aea7ae5-a4dc-46c6-b306-dd2c66cbcc33</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4235590009196568</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>616285</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>809273</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>1431295</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
-        <v>4235590002649597</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6cd7be19-4e75-491c-afcf-ecbc9737189a</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4235590002649597</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>632027</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>979625</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>1291988</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="n">
-        <v>4235590012298419</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28305233-5159-457c-bb80-97edd2f7d294</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4235590012298419</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>638259</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>873023</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>1814727</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
-        <v>4235590011959458</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>f1f35a06-d7e2-47df-9a3e-e1877082249e</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4235590011959458</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>752241</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>1404407</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>1949098</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="n">
-        <v>4235599991110883</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>82d411ce-a3b1-496e-8c77-720dd9a1e763</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4235599991110883</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>753993</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>1478359</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>2161658</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="n">
-        <v>4235590003112314</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ed497085-6d5f-40e1-b646-57321f702615</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4235590003112314</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>798880</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>885145</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>1447942</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="n">
-        <v>4235590009725739</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>453581a3-a6ba-4561-83a7-31c4b9a198ad</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4235590009725739</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>1030194</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>2316325</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>911730</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="n">
-        <v>4235590010694155</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>e6bbeb7d-9e2e-4ca4-b88d-f92f87b8457e</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4235590010694155</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>1152681</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>1961143</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>1071332</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="n">
-        <v>4235590006478423</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>32456a9e-524b-46b3-9649-cacfda5193ed</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4235590006478423</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1248051</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>2037346</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>2364531</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="n">
-        <v>4235590008407925</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>8112e2d8-c4d2-4417-837c-eb5390016114</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4235590008407925</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1258722</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
         <v>798551</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>1448846</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="n">
-        <v>4235590009474932</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>34855fb2-f450-45df-a9e8-ea755aeed554</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4235590009474932</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1264712</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>1425510</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>1559410</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="n">
-        <v>4235590011992152</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>88d2e473-53fb-4c41-8c2f-5880f2883ba9</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4235590011992152</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1286794</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>887451</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>1448270</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="n">
-        <v>4235590013086946</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3e11fce7-e011-442c-81c7-9bf798524eb3</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4235590013086946</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1306669</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
         <v>2233187</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>868340</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="n">
-        <v>4235590005583611</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>f047046b-a5ea-4bc0-862e-092775b38bb3</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4235590005583611</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1354200</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
         <v>1459463</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>2032763</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="n">
-        <v>4235590011922159</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18f6984a-56f5-42e4-a451-0706572882b7</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4235590011922159</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1408663</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>1678396</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>1417237</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="n">
-        <v>4235590002568540</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>bb23cec1-f2de-49f6-a363-61f6fff57a4a</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4235590002568540</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>1452385</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>1096165</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>1282439</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="n">
-        <v>4235590011408035</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>db60f010-34e8-420d-99a8-0d24cebd0e45</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4235590011408035</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>1637909</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F22" t="n">
         <v>1760653</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>1303211</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="n">
-        <v>4235590007668055</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>c15380d4-927a-4b05-91ac-563e1bf7197a</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4235590007668055</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>1846681</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
         <v>1249841</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>1711130</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="n">
-        <v>4235590010167178</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>a309399e-00ab-487e-b542-083af602e4be</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4235590010167178</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>1866414</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
         <v>1729784</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>1021824</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="n">
-        <v>4235599992046037</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8c5482eb-ab92-4104-8c3e-d961674a7937</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4235599992046037</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>2066969</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
         <v>1847208</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>2159451</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>4235590112452106</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>31edcc81-ab45-4e30-8356-7a182f7bb192</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4235590112452106</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>2087570</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
         <v>2233187</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>868340</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="n">
-        <v>4235599994333664</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7c9ee327-d937-40de-8f23-c22bd01b77ca</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4235599994333664</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>2194870</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F27" t="n">
         <v>2438638</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>2507599</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="n">
-        <v>4235598004392058</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ec7be0bc-82ee-4a22-a724-f9c52a74eb4a</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4235598004392058</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>2310676</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
         <v>2555084</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>2624525</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="n">
-        <v>4235598008383582</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>207e16ba-f500-4d79-a5af-07675e86c013</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4235598008383582</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>2374794</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>2620002</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>2688564</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" s="2" t="n">
-        <v>45511.29438719907</v>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARDHOLDER_ROUTING/2024_08_06_1722929004063_1.parquet</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>45511.29438719856</v>
       </c>
     </row>
   </sheetData>
